--- a/docs/PTA2a_DDC_15/PTA2a_DDC_15_24.07.24_output.xlsx
+++ b/docs/PTA2a_DDC_15/PTA2a_DDC_15_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731682226.8215437</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731682228.4392617</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731682226.8215437.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731682228.4392617.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>295.99</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>295.95</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.04000000000002046</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731682228.5609365</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731682230.0336564</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731682228.5609365.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731682230.0336564.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>295.94</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>295.59</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.3500000000000227</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731682230.1254113</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731682231.5949445</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731682230.1254113.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731682231.5949445.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>296</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>295.78</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.2200000000000273</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731682231.7140145</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731682231.7140145.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731682231.7140145.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>296.07</v>
       </c>
-      <c r="J6" t="n">
-        <v>296.07</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>296.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.4300000000000068</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731682233.3946164</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731682234.9303901</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731682233.3946164.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731682234.9303901.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>135.9</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>136.11</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.210000000000008</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731682235.283778</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731682235.48275</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731682235.283778.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731682235.48275.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>135.9</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>136.34</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731682236.926488</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731682237.1030197</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731682236.926488.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731682237.1030197.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>135.98</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>136.2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731682237.744566</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731682239.5737426</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731682237.744566.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731682239.5737426.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>136.38</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>136.69</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.3100000000000023</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731682240.1441717</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731682240.8197224</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731682240.1441717.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731682240.8197224.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>136.34</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>136.66</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731682241.202881</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731682241.4097688</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731682241.202881.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731682241.4097688.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>137.08</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>136.88</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.2000000000000171</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1051,95 +1127,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731682241.4818504</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731682241.4818504.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731682241.4818504.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>136.77</v>
       </c>
-      <c r="J13" t="n">
-        <v>136.77</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>136.76</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.01000000000001933</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731682241.8615775</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731682241.95648</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731682241.8615775.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731682241.95648.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6971</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6964.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>6.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731682244.930659</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731682246.163692</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731682244.930659.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731682246.163692.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6960.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6963.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>3</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731682247.8723907</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731682248.6508982</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731682247.8723907.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731682248.6508982.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6949.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6958.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>9</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731682248.851454</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731682249.2517302</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731682248.851454.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731682249.2517302.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6980</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6969</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>11</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1303,95 +1409,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731682249.3484738</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731682249.3484738.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731682249.3484738.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6960</v>
       </c>
-      <c r="J18" t="n">
-        <v>6960</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>6972</v>
+      </c>
+      <c r="M18" t="n">
+        <v>12</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731682249.62994</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731682251.1701596</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731682249.62994.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731682251.1701596.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>533.2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>534.3</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-1.099999999999909</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731682252.484947</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731682254.0005426</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731682252.484947.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731682254.0005426.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>535.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>536.45</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-1.050000000000068</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1451,51 +1575,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731682254.961654</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731682255.4840147</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731682254.961654.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731682255.4840147.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>535.35</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>536.2</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.8500000000000227</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1503,95 +1633,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731682256.6326966</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731682256.6326966.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731682256.6326966.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>537.05</v>
       </c>
-      <c r="J22" t="n">
-        <v>537.05</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>537</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.04999999999995453</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731682257.390185</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731682259.2577093</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731682257.390185.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731682259.2577093.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1103.4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1099.4</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>4</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1599,51 +1741,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731682259.4590693</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731682259.5258899</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731682259.4590693.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731682259.5258899.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1094.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1098.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>3.600000000000136</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1651,51 +1799,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731682261.4244258</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731682261.887805</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731682261.4244258.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731682261.887805.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1098.2</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1098.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1703,95 +1857,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731682263.6567128</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731682263.6567128.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731682263.6567128.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1094.8</v>
       </c>
-      <c r="J26" t="n">
-        <v>1094.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1084.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-10.20000000000005</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731682267.5088284</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731682268.359538</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731682267.5088284.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731682268.359538.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>129.48</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>129.06</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.4199999999999875</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1799,51 +1965,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731682268.9898348</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731682270.1132438</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731682268.9898348.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731682270.1132438.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>129.68</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>129.3</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1851,51 +2023,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731682270.4604776</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731682270.7018976</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731682270.4604776.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731682270.7018976.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>128.96</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>129.42</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.4599999999999795</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1903,51 +2081,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731682270.8515759</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731682272.6590137</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731682270.8515759.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731682272.6590137.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>129.74</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>131.06</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-1.319999999999993</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-1.02</v>
       </c>
     </row>
@@ -1955,95 +2139,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731682274.027178</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731682274.027178.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731682274.027178.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>131.68</v>
       </c>
-      <c r="J31" t="n">
-        <v>131.68</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>131.44</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.2400000000000091</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731682278.8283029</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731682278.9544797</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731682278.8283029.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731682278.9544797.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>168.42</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>168.48</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2051,51 +2247,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731682279.3503919</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731682282.023691</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731682279.3503919.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731682282.023691.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>168.5</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>172.2</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-3.699999999999989</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-2.2</v>
       </c>
     </row>
@@ -2103,95 +2305,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731682282.9978929</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731682282.9978929.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731682282.9978929.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>172.18</v>
       </c>
-      <c r="J34" t="n">
-        <v>172.18</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>171.74</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.4399999999999977</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731682286.211394</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731682286.9961603</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731682286.211394.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731682286.9961603.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>53.385</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>53.33</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.05499999999999972</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2199,51 +2413,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731682287.2416356</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731682287.3383727</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731682287.2416356.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731682287.3383727.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>53.32</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>53.365</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.04500000000000171</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2251,51 +2471,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731682287.6053927</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731682290.7139194</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731682287.6053927.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731682290.7139194.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>53.4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>53.66</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.259999999999998</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -2303,51 +2529,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731682290.8229556</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731682291.231785</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731682290.8229556.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731682291.231785.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>53.605</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>53.505</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -2355,51 +2587,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731682292.7575462</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731682297.0626106</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731682292.7575462.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731682297.0626106.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1462</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1468</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-6</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -2407,51 +2645,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731682298.6556525</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731682299.8122268</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731682298.6556525.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731682299.8122268.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1469.6</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1468</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2459,95 +2703,107 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731682299.8282003</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731682299.8282003.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731682299.8282003.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1468</v>
       </c>
-      <c r="J41" t="n">
-        <v>1468</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1464.8</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-3.200000000000045</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731682302.2464128</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731682303.761822</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731682302.2464128.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731682303.761822.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>64.06999999999999</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>63.87</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.1999999999999957</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2555,51 +2811,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731682304.7972891</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731682305.4909377</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731682304.7972891.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731682305.4909377.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>64.14</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>63.89</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.25</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -2607,51 +2869,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731682305.5673938</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731682305.7690675</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731682305.5673938.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731682305.7690675.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>63.84</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>63.96</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1199999999999974</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2659,51 +2927,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731682306.0858288</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731682308.1416638</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731682306.0858288.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731682308.1416638.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>64.2</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>64.16</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.04000000000000625</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2711,51 +2985,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731682308.1566527</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731682308.7185638</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731682308.1566527.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731682308.7185638.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>64.16</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>64.23</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.07000000000000739</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2763,51 +3043,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731682308.8165076</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731682309.0502884</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731682308.8165076.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731682309.0502884.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>63.91</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>64.09999999999999</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2815,51 +3101,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731682312.3636892</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731682312.8986309</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/SELG1731682312.3636892.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/SELG1731682312.8986309.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>59.21</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>59.17</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2867,51 +3159,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731682313.1556728</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731682314.1606305</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/SELG1731682313.1556728.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/SELG1731682314.1606305.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>59.03</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>59.04</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2919,51 +3217,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731682315.0065858</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731682316.5266995</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731682315.0065858.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731682316.5266995.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>59.08</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>59.26</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.1799999999999997</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -2971,51 +3275,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731682316.541638</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731682316.6691134</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731682316.541638.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731682316.6691134.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>59.26</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>59.24</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3023,51 +3333,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731682319.4513414</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731682319.8035023</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731682319.4513414.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731682319.8035023.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>145.9</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>145.96</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3075,51 +3391,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731682319.8443916</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731682319.938756</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731682319.8443916.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731682319.938756.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>145.8</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>145.98</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1799999999999784</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3127,51 +3449,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731682320.1675277</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731682320.3966942</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731682320.1675277.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731682320.3966942.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>145.74</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>145.82</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3179,51 +3507,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731682321.113343</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731682322.424869</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731682321.113343.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731682322.424869.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>145.92</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>145.4</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.5199999999999818</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3231,51 +3565,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731682322.4408257</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731682324.0749075</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731682322.4408257.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731682324.0749075.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>145.4</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>145.38</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -3283,51 +3623,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731682325.5854905</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731682326.1911542</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731682325.5854905.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731682326.1911542.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>91.5</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>90.45999999999999</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>1.040000000000006</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>1.14</v>
       </c>
     </row>
@@ -3335,51 +3681,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731682326.23999</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731682329.9477937</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731682326.23999.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731682329.9477937.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>90.38</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>89.2</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-1.179999999999993</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-1.31</v>
       </c>
     </row>
@@ -3387,51 +3739,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731682331.6667526</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731682331.9600296</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731682331.6667526.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731682331.9600296.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>89.38</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>89.31999999999999</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3439,51 +3797,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731682331.9749918</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731682332.0796125</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731682331.9749918.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731682332.0796125.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>89.31999999999999</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>89.36</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.04000000000000625</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3491,51 +3855,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731682335.492711</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731682337.4869478</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731682335.492711.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731682337.4869478.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>362.33</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>362.76</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.4300000000000068</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -3543,51 +3913,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731682337.7469974</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731682338.2999573</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731682337.7469974.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731682338.2999573.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>361.5</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>362.77</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>1.269999999999982</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -3595,51 +3971,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731682338.7767022</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731682339.6418762</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731682338.7767022.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731682339.6418762.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>363.78</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>362.53</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>1.25</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -3647,51 +4029,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731682340.7754366</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731682342.3206625</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731682340.7754366.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731682342.3206625.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>363.7</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>371.66</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-7.960000000000036</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-2.19</v>
       </c>
     </row>
@@ -3699,95 +4087,107 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731682342.3355904</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731682342.3355904.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731682342.3355904.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>371.66</v>
       </c>
-      <c r="J65" t="n">
-        <v>371.66</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>370.24</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-1.420000000000016</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731682343.9795706</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731682345.7171614</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731682343.9795706.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731682345.7171614.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>0.09948000000000001</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>0.10028</v>
       </c>
-      <c r="K66" t="n">
-        <v>-0.0007999999999999952</v>
-      </c>
-      <c r="L66" t="n">
+      <c r="M66" t="n">
+        <v>-0.0007999999999999813</v>
+      </c>
+      <c r="N66" t="n">
         <v>-0.8</v>
       </c>
     </row>
@@ -3795,51 +4195,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731682346.3605494</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731682346.527611</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/FEES1731682346.3605494.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/FEES1731682346.527611.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>0.10076</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>0.10046</v>
       </c>
-      <c r="K67" t="n">
-        <v>0.0002999999999999947</v>
-      </c>
-      <c r="L67" t="n">
+      <c r="M67" t="n">
+        <v>0.0003000000000000086</v>
+      </c>
+      <c r="N67" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3847,51 +4253,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731682347.303298</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731682347.8861985</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/FEES1731682347.303298.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/FEES1731682347.8861985.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>0.1008</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>0.10048</v>
       </c>
-      <c r="K68" t="n">
-        <v>0.000319999999999987</v>
-      </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
+        <v>0.0003200000000000008</v>
+      </c>
+      <c r="N68" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3899,51 +4311,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731682348.7070088</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731682349.6577086</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/FEES1731682348.7070088.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/FEES1731682349.6577086.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>0.10026</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>0.10036</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.0001000000000000029</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3951,51 +4369,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731682350.8236418</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731682351.2214947</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/FEES1731682350.8236418.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/FEES1731682351.2214947.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>0.1001</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>0.10062</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.0005200000000000066</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -4003,51 +4427,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731682351.2384226</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731682351.3067894</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/FEES1731682351.2384226.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/FEES1731682351.3067894.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>0.10062</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>0.1005</v>
       </c>
-      <c r="K71" t="n">
-        <v>0.000120000000000009</v>
-      </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
+        <v>0.0001199999999999951</v>
+      </c>
+      <c r="N71" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4055,95 +4485,107 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731682351.923687</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731682351.923687.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731682351.923687.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>0.10024</v>
       </c>
-      <c r="J72" t="n">
-        <v>0.10024</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>0.10026</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2.000000000000612e-05</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731682352.1360898</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731682354.4416633</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731682352.1360898.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731682354.4416633.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>3117.15</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>3119.05</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-1.900000000000091</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -4151,51 +4593,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731682356.367038</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731682356.9249456</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731682356.367038.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731682356.9249456.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>3115.85</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>3119.05</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>3.200000000000273</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4203,51 +4651,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731682357.509592</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731682359.176843</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731682357.509592.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731682359.176843.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>3121.9</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>3122.6</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.6999999999998181</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4255,51 +4709,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731682360.7439985</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731682361.364612</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731682360.7439985.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731682361.364612.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>3126.75</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>3134</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-7.25</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -4307,95 +4767,107 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731682361.4684434</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731682361.4684434.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731682361.4684434.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>3130</v>
       </c>
-      <c r="J77" t="n">
-        <v>3130</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>3132.95</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2.949999999999818</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731682364.5758326</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731682364.8653963</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731682364.5758326.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731682364.8653963.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>38.17</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>38.095</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.07500000000000284</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -4403,51 +4875,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731682364.8823533</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731682367.0625055</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731682364.8823533.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731682367.0625055.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>38.095</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>38.045</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -4455,51 +4933,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731682367.1896255</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731682367.7513673</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731682367.1896255.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731682367.7513673.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>37.98</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>37.97</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4507,95 +4991,107 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731682369.055891</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731682369.055891.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731682369.055891.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>38.01</v>
       </c>
-      <c r="J81" t="n">
-        <v>38.01</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>37.995</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.01500000000000057</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731682370.4960492</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731682371.5364528</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/TATN1731682370.4960492.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/TATN1731682371.5364528.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>663.5</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>662.5</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4603,51 +5099,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731682372.212658</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731682372.3748107</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/TATN1731682372.212658.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/TATN1731682372.3748107.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>664.9</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>663.1</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -4655,51 +5157,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731682372.5607831</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731682372.947726</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/TATN1731682372.5607831.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/TATN1731682372.947726.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>662.5</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>663.8</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>1.299999999999955</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -4707,51 +5215,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731682373.262527</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731682373.9867442</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/TATN1731682373.262527.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/TATN1731682373.9867442.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>662.5</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>663.4</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.8999999999999773</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4759,51 +5273,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731682374.2924144</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731682376.4556794</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/TATN1731682374.2924144.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/TATN1731682376.4556794.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>664.1</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>664.3</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.1999999999999318</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4811,44 +5331,50 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731682377.9958134</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731682377.9958134.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731682377.9958134.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>665.8</v>
       </c>
-      <c r="J87" t="n">
-        <v>665.8</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>665.2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-0.5999999999999091</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -4909,16 +5435,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0005600000000000049</v>
+        <v>0.0005800000000000388</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>8.000000000000071e-05</v>
+        <v>8.28571428571484e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="F2" t="n">
         <v>0.08</v>
@@ -4931,16 +5457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6599999999999966</v>
+        <v>0.6499999999999773</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09428571428571379</v>
+        <v>0.09285714285713961</v>
       </c>
       <c r="E3" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="F3" t="n">
         <v>0.07000000000000001</v>
@@ -4953,19 +5479,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.799999999999955</v>
+        <v>4.200000000000045</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7999999999999924</v>
+        <v>0.7000000000000076</v>
       </c>
       <c r="E4" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -4997,19 +5523,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.649999999999636</v>
+        <v>-3.699999999999818</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.329999999999927</v>
+        <v>-0.7399999999999636</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.21</v>
+        <v>-0.12</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="7">
@@ -5019,19 +5545,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.870000000000061</v>
+        <v>-7.290000000000077</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.174000000000012</v>
+        <v>-1.458000000000016</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.62</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.32</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="8">
@@ -5041,19 +5567,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0600000000000307</v>
+        <v>0.1799999999999784</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01200000000000614</v>
+        <v>0.03599999999999568</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.05000000000000004</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
@@ -5063,19 +5589,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.5</v>
+        <v>41.5</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>5.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.42</v>
+        <v>0.59</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="10">
@@ -5107,19 +5633,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01500000000000767</v>
+        <v>0.03000000000000824</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003750000000001918</v>
+        <v>0.007500000000002061</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04000000000000001</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
@@ -5151,19 +5677,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.08999999999997499</v>
+        <v>-0.5199999999999818</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.02249999999999375</v>
+        <v>-0.1299999999999955</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.04000000000000001</v>
+        <v>-0.19</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="14">
@@ -5195,16 +5721,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.299999999999955</v>
+        <v>-1.25</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3249999999999886</v>
+        <v>-0.3125</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="F15" t="n">
         <v>-0.06</v>
@@ -5217,19 +5743,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.800000000000182</v>
+        <v>-2.399999999999864</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>1.950000000000045</v>
+        <v>-0.5999999999999659</v>
       </c>
       <c r="E16" t="n">
-        <v>0.71</v>
+        <v>-0.22</v>
       </c>
       <c r="F16" t="n">
-        <v>0.18</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="17">
@@ -5261,19 +5787,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.639999999999986</v>
+        <v>-4.079999999999984</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.213333333333329</v>
+        <v>-1.359999999999995</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.16</v>
+        <v>-2.42</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.72</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -5283,19 +5809,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4.400000000000091</v>
+        <v>-7.600000000000136</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.466666666666697</v>
+        <v>-2.533333333333379</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3</v>
+        <v>-0.52</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="20">
